--- a/src/import-data/import-orders.xlsx
+++ b/src/import-data/import-orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankoj\Desktop\WMS.React\src\import-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD4823-D528-4E41-80A4-36B6DEF8ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063813F9-8836-46BE-919C-DCB1B1494593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,11 +398,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">CONCATENATE($B$1,RANDBETWEEN(1,1000))</f>
-        <v>test296</v>
+        <v>test721</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">CONCATENATE($C$1,RANDBETWEEN(1,1000))</f>
-        <v>column367</v>
+        <v>column801</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -415,11 +415,11 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B20" ca="1" si="1">CONCATENATE($B$1,RANDBETWEEN(1,1000))</f>
-        <v>test145</v>
+        <v>test397</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C20" ca="1" si="2">CONCATENATE($C$1,RANDBETWEEN(1,1000))</f>
-        <v>column741</v>
+        <v>column880</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -432,11 +432,11 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test509</v>
+        <v>test633</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column460</v>
+        <v>column925</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,11 +446,11 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test149</v>
+        <v>test697</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column219</v>
+        <v>column618</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -460,11 +460,11 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test188</v>
+        <v>test740</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column240</v>
+        <v>column520</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test853</v>
+        <v>test759</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column807</v>
+        <v>column146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,11 +491,11 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test403</v>
+        <v>test561</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column739</v>
+        <v>column680</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,11 +505,11 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test344</v>
+        <v>test789</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column388</v>
+        <v>column902</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -522,11 +522,11 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test485</v>
+        <v>test194</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column705</v>
+        <v>column956</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,11 +536,11 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test158</v>
+        <v>test217</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column371</v>
+        <v>column670</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,11 +550,11 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test662</v>
+        <v>test115</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column253</v>
+        <v>column455</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,11 +564,11 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test299</v>
+        <v>test489</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column808</v>
+        <v>column845</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,11 +578,11 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test708</v>
+        <v>test894</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column759</v>
+        <v>column829</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -595,11 +595,11 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test531</v>
+        <v>test540</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column689</v>
+        <v>column576</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,11 +609,11 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test162</v>
+        <v>test548</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column704</v>
+        <v>column589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,11 +623,11 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test200</v>
+        <v>test864</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column867</v>
+        <v>column591</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,11 +637,11 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test516</v>
+        <v>test733</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column79</v>
+        <v>column999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,11 +651,11 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test768</v>
+        <v>test556</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column694</v>
+        <v>column269</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -668,11 +668,11 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>test761</v>
+        <v>test817</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>column850</v>
+        <v>column866</v>
       </c>
     </row>
   </sheetData>
